--- a/Code/Results/Cases/Case_8_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007804201270331</v>
+        <v>1.004992619511244</v>
       </c>
       <c r="D2">
-        <v>1.027853878021303</v>
+        <v>1.025636843865235</v>
       </c>
       <c r="E2">
-        <v>1.012631470221387</v>
+        <v>1.010335106176341</v>
       </c>
       <c r="F2">
-        <v>1.032071133266666</v>
+        <v>1.030255477248353</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045759844507345</v>
+        <v>1.04498167409106</v>
       </c>
       <c r="J2">
-        <v>1.029753969507427</v>
+        <v>1.027025020767534</v>
       </c>
       <c r="K2">
-        <v>1.038938337569444</v>
+        <v>1.036750207057836</v>
       </c>
       <c r="L2">
-        <v>1.023917589385601</v>
+        <v>1.021652310104315</v>
       </c>
       <c r="M2">
-        <v>1.043101040842093</v>
+        <v>1.041308802597559</v>
       </c>
       <c r="N2">
-        <v>1.031216338258566</v>
+        <v>1.024749941548611</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042683970007846</v>
+        <v>1.041265536497114</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038603051569406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037064630090957</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021505715864836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013314650747592</v>
+        <v>1.009564388688823</v>
       </c>
       <c r="D3">
-        <v>1.031514325928865</v>
+        <v>1.028567981594315</v>
       </c>
       <c r="E3">
-        <v>1.017169907916909</v>
+        <v>1.014041043969318</v>
       </c>
       <c r="F3">
-        <v>1.035724096518773</v>
+        <v>1.03331114104893</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046890568301009</v>
+        <v>1.045792364067952</v>
       </c>
       <c r="J3">
-        <v>1.033448810545365</v>
+        <v>1.029797671677011</v>
       </c>
       <c r="K3">
-        <v>1.041759249150858</v>
+        <v>1.038847926376111</v>
       </c>
       <c r="L3">
-        <v>1.027587710817666</v>
+        <v>1.02449736475962</v>
       </c>
       <c r="M3">
-        <v>1.045919408432579</v>
+        <v>1.043534827933857</v>
       </c>
       <c r="N3">
-        <v>1.034916426394574</v>
+        <v>1.026304521094444</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04491450884336</v>
+        <v>1.043027282289206</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04059502133386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038544957040765</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.0219992662654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016799736682447</v>
+        <v>1.012463866282486</v>
       </c>
       <c r="D4">
-        <v>1.033832663658627</v>
+        <v>1.030429921990347</v>
       </c>
       <c r="E4">
-        <v>1.020045580374642</v>
+        <v>1.016396768456327</v>
       </c>
       <c r="F4">
-        <v>1.03804258116871</v>
+        <v>1.035256340646193</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047594311458962</v>
+        <v>1.046295719481037</v>
       </c>
       <c r="J4">
-        <v>1.035783251928013</v>
+        <v>1.031554030762972</v>
       </c>
       <c r="K4">
-        <v>1.043539210983152</v>
+        <v>1.040174449096011</v>
       </c>
       <c r="L4">
-        <v>1.029907946068021</v>
+        <v>1.02630124618844</v>
       </c>
       <c r="M4">
-        <v>1.047702562885179</v>
+        <v>1.044947088666296</v>
       </c>
       <c r="N4">
-        <v>1.03725418295175</v>
+        <v>1.027289272659437</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046325746104296</v>
+        <v>1.044144987211157</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041854500292298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039483899738273</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02230856859893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018253350150363</v>
+        <v>1.01367447463462</v>
       </c>
       <c r="D5">
-        <v>1.034802779964985</v>
+        <v>1.031210432626015</v>
       </c>
       <c r="E5">
-        <v>1.021247254636205</v>
+        <v>1.017382492320688</v>
       </c>
       <c r="F5">
-        <v>1.039012253933007</v>
+        <v>1.03607102674729</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04788736542362</v>
+        <v>1.046505391057428</v>
       </c>
       <c r="J5">
-        <v>1.036758454557108</v>
+        <v>1.032288757601276</v>
       </c>
       <c r="K5">
-        <v>1.044284016949004</v>
+        <v>1.040730686514517</v>
       </c>
       <c r="L5">
-        <v>1.030877486921943</v>
+        <v>1.027056099923527</v>
       </c>
       <c r="M5">
-        <v>1.048448191931359</v>
+        <v>1.045538568381134</v>
       </c>
       <c r="N5">
-        <v>1.038230770480436</v>
+        <v>1.027701215416039</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046915856545713</v>
+        <v>1.044613101246406</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042388287390883</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039885080602384</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022438417663003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01850484334941</v>
+        <v>1.013883344389139</v>
       </c>
       <c r="D6">
-        <v>1.034973621769419</v>
+        <v>1.03134810609795</v>
       </c>
       <c r="E6">
-        <v>1.021456470159968</v>
+        <v>1.017553729179469</v>
       </c>
       <c r="F6">
-        <v>1.039181050232552</v>
+        <v>1.036212691262972</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047940726126848</v>
+        <v>1.046544027717919</v>
       </c>
       <c r="J6">
-        <v>1.036929734633818</v>
+        <v>1.032417848982266</v>
       </c>
       <c r="K6">
-        <v>1.044416998418704</v>
+        <v>1.040830677242292</v>
       </c>
       <c r="L6">
-        <v>1.031047717267162</v>
+        <v>1.027188569927157</v>
       </c>
       <c r="M6">
-        <v>1.048579361313098</v>
+        <v>1.04564274971613</v>
       </c>
       <c r="N6">
-        <v>1.038402293794501</v>
+        <v>1.027773593550155</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047019667396071</v>
+        <v>1.044695553316259</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042491031523985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039965386503527</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022462734679676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01684224102194</v>
+        <v>1.012539239656007</v>
       </c>
       <c r="D7">
-        <v>1.033869001235803</v>
+        <v>1.030491126907852</v>
       </c>
       <c r="E7">
-        <v>1.020084101406642</v>
+        <v>1.01646758277368</v>
       </c>
       <c r="F7">
-        <v>1.038073402294997</v>
+        <v>1.035308076439925</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047610546662705</v>
+        <v>1.046324945212553</v>
       </c>
       <c r="J7">
-        <v>1.035818780017223</v>
+        <v>1.031621564259348</v>
       </c>
       <c r="K7">
-        <v>1.043572274446355</v>
+        <v>1.040232085392992</v>
       </c>
       <c r="L7">
-        <v>1.029943102325508</v>
+        <v>1.026368303525693</v>
       </c>
       <c r="M7">
-        <v>1.047730190101844</v>
+        <v>1.044995386453417</v>
       </c>
       <c r="N7">
-        <v>1.037289761494922</v>
+        <v>1.027379364946672</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046347611018749</v>
+        <v>1.044183211478372</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041897933370894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039546749313902</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022329045725381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009713256039503</v>
+        <v>1.00670626166388</v>
       </c>
       <c r="D8">
-        <v>1.02913139759947</v>
+        <v>1.026760988720407</v>
       </c>
       <c r="E8">
-        <v>1.014207168330578</v>
+        <v>1.0117486445855</v>
       </c>
       <c r="F8">
-        <v>1.033338090635553</v>
+        <v>1.031398470318857</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04616367153325</v>
+        <v>1.04532580435496</v>
       </c>
       <c r="J8">
-        <v>1.031043400941027</v>
+        <v>1.028121702041622</v>
       </c>
       <c r="K8">
-        <v>1.03993071045104</v>
+        <v>1.037590267443194</v>
       </c>
       <c r="L8">
-        <v>1.025198072865945</v>
+        <v>1.02277179041022</v>
       </c>
       <c r="M8">
-        <v>1.04408464582846</v>
+        <v>1.04216928432351</v>
       </c>
       <c r="N8">
-        <v>1.032507600832694</v>
+        <v>1.025523386253363</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043462424639779</v>
+        <v>1.041946549046735</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039327634284742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037683813964883</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021721267459047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9964572431511611</v>
+        <v>0.9957948379073771</v>
       </c>
       <c r="D9">
-        <v>1.020339252701203</v>
+        <v>1.01978073509678</v>
       </c>
       <c r="E9">
-        <v>1.003319102803104</v>
+        <v>1.002938726829734</v>
       </c>
       <c r="F9">
-        <v>1.024598518041482</v>
+        <v>1.024146554048172</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043371991864644</v>
+        <v>1.043330862850985</v>
       </c>
       <c r="J9">
-        <v>1.022135728570256</v>
+        <v>1.021496970222236</v>
       </c>
       <c r="K9">
-        <v>1.033110738916059</v>
+        <v>1.032560833494267</v>
       </c>
       <c r="L9">
-        <v>1.016358558434357</v>
+        <v>1.015984304499372</v>
       </c>
       <c r="M9">
-        <v>1.037304721380358</v>
+        <v>1.036859651916388</v>
       </c>
       <c r="N9">
-        <v>1.023587278545432</v>
+        <v>1.021828635507007</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038096571066973</v>
+        <v>1.037744327160739</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034502253068785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034124204500798</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020522742620051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9872605258297804</v>
+        <v>0.9884830096223775</v>
       </c>
       <c r="D10">
-        <v>1.014303176835775</v>
+        <v>1.015188728524304</v>
       </c>
       <c r="E10">
-        <v>0.9958210121603883</v>
+        <v>0.9971224137739442</v>
       </c>
       <c r="F10">
-        <v>1.018672550580184</v>
+        <v>1.019412396690514</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041416976593671</v>
+        <v>1.042020224848628</v>
       </c>
       <c r="J10">
-        <v>1.015988867848861</v>
+        <v>1.017161140732276</v>
       </c>
       <c r="K10">
-        <v>1.028418897536989</v>
+        <v>1.02928905616588</v>
       </c>
       <c r="L10">
-        <v>1.01026613169683</v>
+        <v>1.011543819028594</v>
       </c>
       <c r="M10">
-        <v>1.03271265669284</v>
+        <v>1.033439782280644</v>
       </c>
       <c r="N10">
-        <v>1.017431688576759</v>
+        <v>1.019632385709896</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034513925320476</v>
+        <v>1.035089364870737</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031201669824719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031829402345688</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019764168691227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9842651393912565</v>
+        <v>0.9863213152296018</v>
       </c>
       <c r="D11">
-        <v>1.012639975478483</v>
+        <v>1.014155200424679</v>
       </c>
       <c r="E11">
-        <v>0.993555750212345</v>
+        <v>0.9956085648076447</v>
       </c>
       <c r="F11">
-        <v>1.017430612062381</v>
+        <v>1.018695073654536</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041065108080779</v>
+        <v>1.041943648255</v>
       </c>
       <c r="J11">
-        <v>1.01430748052708</v>
+        <v>1.016274426865441</v>
       </c>
       <c r="K11">
-        <v>1.027327393242121</v>
+        <v>1.028815018014198</v>
       </c>
       <c r="L11">
-        <v>1.008600227576344</v>
+        <v>1.010613775076282</v>
       </c>
       <c r="M11">
-        <v>1.032031132425585</v>
+        <v>1.033272835081522</v>
       </c>
       <c r="N11">
-        <v>1.015747913492123</v>
+        <v>1.01958287719931</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034412838249561</v>
+        <v>1.035395010417971</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030462956493766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031530454394888</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019789711316624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9835547866694576</v>
+        <v>0.9858011751161109</v>
       </c>
       <c r="D12">
-        <v>1.012396803646334</v>
+        <v>1.014049034484242</v>
       </c>
       <c r="E12">
-        <v>0.9931116552350875</v>
+        <v>0.9953279553827972</v>
       </c>
       <c r="F12">
-        <v>1.017474621221064</v>
+        <v>1.018855308993481</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04113253484645</v>
+        <v>1.042058744465803</v>
       </c>
       <c r="J12">
-        <v>1.014071821089983</v>
+        <v>1.016218852664031</v>
       </c>
       <c r="K12">
-        <v>1.027290292929831</v>
+        <v>1.028911937584224</v>
       </c>
       <c r="L12">
-        <v>1.008372025745544</v>
+        <v>1.010545215134983</v>
       </c>
       <c r="M12">
-        <v>1.032274521784619</v>
+        <v>1.033629972213063</v>
       </c>
       <c r="N12">
-        <v>1.015511919391595</v>
+        <v>1.01974602890513</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03493305312338</v>
+        <v>1.036004832961648</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030436725075513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031598978802276</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019901937004054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9845916507957305</v>
+        <v>0.9864819372302716</v>
       </c>
       <c r="D13">
-        <v>1.013263005659997</v>
+        <v>1.014632266386666</v>
       </c>
       <c r="E13">
-        <v>0.994069973385144</v>
+        <v>0.9959478609888077</v>
       </c>
       <c r="F13">
-        <v>1.018547684531178</v>
+        <v>1.019697008337802</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041548060022405</v>
+        <v>1.042325961070807</v>
       </c>
       <c r="J13">
-        <v>1.014967679359114</v>
+        <v>1.016774873790061</v>
       </c>
       <c r="K13">
-        <v>1.028097247497553</v>
+        <v>1.029441292307719</v>
       </c>
       <c r="L13">
-        <v>1.0092672529574</v>
+        <v>1.01110881113532</v>
       </c>
       <c r="M13">
-        <v>1.033285092040414</v>
+        <v>1.034413528954271</v>
       </c>
       <c r="N13">
-        <v>1.016409049882224</v>
+        <v>1.020014612150959</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03600962524416</v>
+        <v>1.036901675977508</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031004767959449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031970499001268</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020085213261162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9861055171756483</v>
+        <v>0.9875100929561557</v>
       </c>
       <c r="D14">
-        <v>1.014369816257289</v>
+        <v>1.015360343136318</v>
       </c>
       <c r="E14">
-        <v>0.9953731169469054</v>
+        <v>0.9967985563813001</v>
       </c>
       <c r="F14">
-        <v>1.019761699147601</v>
+        <v>1.020599552919442</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041995264916632</v>
+        <v>1.042586636813679</v>
       </c>
       <c r="J14">
-        <v>1.016104467062004</v>
+        <v>1.017448269873874</v>
       </c>
       <c r="K14">
-        <v>1.029042353639289</v>
+        <v>1.030014882169753</v>
       </c>
       <c r="L14">
-        <v>1.010399904390132</v>
+        <v>1.011798149331997</v>
       </c>
       <c r="M14">
-        <v>1.034336812787179</v>
+        <v>1.035159647741509</v>
       </c>
       <c r="N14">
-        <v>1.017547451954044</v>
+        <v>1.020255683462212</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03701471066108</v>
+        <v>1.037665089302904</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031674427847958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032377609713284</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020249436211728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9868647598369956</v>
+        <v>0.9880377202218533</v>
       </c>
       <c r="D15">
-        <v>1.014893211296239</v>
+        <v>1.015705138023027</v>
       </c>
       <c r="E15">
-        <v>0.9960061960046506</v>
+        <v>0.9972184661646097</v>
       </c>
       <c r="F15">
-        <v>1.020301089691199</v>
+        <v>1.0209915479189</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042186232250956</v>
+        <v>1.042692729130215</v>
       </c>
       <c r="J15">
-        <v>1.016639911354565</v>
+        <v>1.017762594438915</v>
       </c>
       <c r="K15">
-        <v>1.029469225892041</v>
+        <v>1.030266516643208</v>
       </c>
       <c r="L15">
-        <v>1.010931475772747</v>
+        <v>1.012120808953462</v>
       </c>
       <c r="M15">
-        <v>1.034780190583805</v>
+        <v>1.035458371129442</v>
       </c>
       <c r="N15">
-        <v>1.018083656638916</v>
+        <v>1.020351193988783</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037402762375277</v>
+        <v>1.037938790351057</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031982141009704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032561985839961</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020311879904369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9905714284701601</v>
+        <v>0.9907147739386676</v>
       </c>
       <c r="D16">
-        <v>1.017291289596621</v>
+        <v>1.017318696871663</v>
       </c>
       <c r="E16">
-        <v>0.9989971177585754</v>
+        <v>0.9992763857017611</v>
       </c>
       <c r="F16">
-        <v>1.022639883975565</v>
+        <v>1.022680514407034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042950338689105</v>
+        <v>1.043100352740175</v>
       </c>
       <c r="J16">
-        <v>1.019086188250695</v>
+        <v>1.01922371152546</v>
       </c>
       <c r="K16">
-        <v>1.031319426238013</v>
+        <v>1.031346361587366</v>
       </c>
       <c r="L16">
-        <v>1.013347772127051</v>
+        <v>1.013622001328073</v>
       </c>
       <c r="M16">
-        <v>1.036576541892686</v>
+        <v>1.036616482136533</v>
       </c>
       <c r="N16">
-        <v>1.020533407528831</v>
+        <v>1.020763249316945</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038783816818785</v>
+        <v>1.038815386154007</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033293479319281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033328949913548</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020526800908851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9926224245815557</v>
+        <v>0.9922760268214307</v>
       </c>
       <c r="D17">
-        <v>1.018552526755836</v>
+        <v>1.018210498170458</v>
       </c>
       <c r="E17">
-        <v>1.000611653009935</v>
+        <v>1.00045457754803</v>
       </c>
       <c r="F17">
-        <v>1.023793974834122</v>
+        <v>1.023527779067108</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043300195788182</v>
+        <v>1.043290053124785</v>
       </c>
       <c r="J17">
-        <v>1.020367094365653</v>
+        <v>1.020034296347084</v>
       </c>
       <c r="K17">
-        <v>1.032242898884307</v>
+        <v>1.031906591536709</v>
       </c>
       <c r="L17">
-        <v>1.014608966226189</v>
+        <v>1.014454641065182</v>
       </c>
       <c r="M17">
-        <v>1.037397286599838</v>
+        <v>1.037135484683094</v>
       </c>
       <c r="N17">
-        <v>1.021816132677394</v>
+        <v>1.021028665515811</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039303347010553</v>
+        <v>1.039096394362994</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033949003912092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03372789647417</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020615620581073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.993416778815388</v>
+        <v>0.9929383875891562</v>
       </c>
       <c r="D18">
-        <v>1.018918038978123</v>
+        <v>1.018481572718164</v>
       </c>
       <c r="E18">
-        <v>1.001163617866362</v>
+        <v>1.00089748208866</v>
       </c>
       <c r="F18">
-        <v>1.023976048028394</v>
+        <v>1.023629598964395</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043309113889539</v>
+        <v>1.043268758777982</v>
       </c>
       <c r="J18">
-        <v>1.020730820253078</v>
+        <v>1.020270854464728</v>
       </c>
       <c r="K18">
-        <v>1.032418021460642</v>
+        <v>1.031988737569006</v>
       </c>
       <c r="L18">
-        <v>1.014962295933806</v>
+        <v>1.014700741784596</v>
       </c>
       <c r="M18">
-        <v>1.037393370934246</v>
+        <v>1.037052550176232</v>
       </c>
       <c r="N18">
-        <v>1.022180375097298</v>
+        <v>1.021078493396736</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039062204507392</v>
+        <v>1.038792731666836</v>
       </c>
       <c r="Q18">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R18">
-        <v>1.034061149980009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033773168699009</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020573692881481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9931208472475536</v>
+        <v>0.9927832140611653</v>
       </c>
       <c r="D19">
-        <v>1.018519545133401</v>
+        <v>1.018198670742386</v>
       </c>
       <c r="E19">
-        <v>1.000802439486552</v>
+        <v>1.000674436094296</v>
       </c>
       <c r="F19">
-        <v>1.023306047161171</v>
+        <v>1.023052202046947</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043038752943632</v>
+        <v>1.043065634408986</v>
       </c>
       <c r="J19">
-        <v>1.020310120188225</v>
+        <v>1.019985423176382</v>
       </c>
       <c r="K19">
-        <v>1.031963213150364</v>
+        <v>1.031647595301729</v>
       </c>
       <c r="L19">
-        <v>1.014542866997526</v>
+        <v>1.014417057057576</v>
       </c>
       <c r="M19">
-        <v>1.036671805471741</v>
+        <v>1.036422068681058</v>
       </c>
       <c r="N19">
-        <v>1.021759077590098</v>
+        <v>1.020895146402413</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038165509083582</v>
+        <v>1.03796798777203</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033746001103275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03353901478514</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020420264569255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9897234737331976</v>
+        <v>0.9902968405904848</v>
       </c>
       <c r="D20">
-        <v>1.015940762087461</v>
+        <v>1.016329340105378</v>
       </c>
       <c r="E20">
-        <v>0.9978380410654136</v>
+        <v>0.9985483669918146</v>
       </c>
       <c r="F20">
-        <v>1.020267163397069</v>
+        <v>1.02059555943045</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I20">
-        <v>1.041966917756752</v>
+        <v>1.042339324960631</v>
       </c>
       <c r="J20">
-        <v>1.017656367772981</v>
+        <v>1.018206995816096</v>
       </c>
       <c r="K20">
-        <v>1.029708986461867</v>
+        <v>1.030091008861388</v>
       </c>
       <c r="L20">
-        <v>1.011919012740339</v>
+        <v>1.012616789732411</v>
       </c>
       <c r="M20">
-        <v>1.03396276093517</v>
+        <v>1.034285676611783</v>
       </c>
       <c r="N20">
-        <v>1.019101556542035</v>
+        <v>1.020021964345566</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035492656483239</v>
+        <v>1.035748211571212</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032156119240694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032442788614535</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019944963879118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9825545583523466</v>
+        <v>0.9853022528745188</v>
       </c>
       <c r="D21">
-        <v>1.011188106304056</v>
+        <v>1.013251154974741</v>
       </c>
       <c r="E21">
-        <v>0.9919752919343091</v>
+        <v>0.994686032559037</v>
       </c>
       <c r="F21">
-        <v>1.015535661723658</v>
+        <v>1.017250771346767</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040366967870901</v>
+        <v>1.041530651992942</v>
       </c>
       <c r="J21">
-        <v>1.012800218086497</v>
+        <v>1.015427598354412</v>
       </c>
       <c r="K21">
-        <v>1.025960572086072</v>
+        <v>1.027985755063389</v>
       </c>
       <c r="L21">
-        <v>1.007110306596136</v>
+        <v>1.009768783924032</v>
       </c>
       <c r="M21">
-        <v>1.030228565005026</v>
+        <v>1.031912530533516</v>
       </c>
       <c r="N21">
-        <v>1.014238510565988</v>
+        <v>1.019280507177923</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032496226883946</v>
+        <v>1.033828986444018</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029509096050023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030957871838783</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01950779757638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.97795953393432</v>
+        <v>0.9821069641733192</v>
       </c>
       <c r="D22">
-        <v>1.008158217983461</v>
+        <v>1.011305399217016</v>
       </c>
       <c r="E22">
-        <v>0.9882315558022635</v>
+        <v>0.9922324463207696</v>
       </c>
       <c r="F22">
-        <v>1.01255606414834</v>
+        <v>1.015168457673098</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039339479925549</v>
+        <v>1.041017631551721</v>
       </c>
       <c r="J22">
-        <v>1.009698539498909</v>
+        <v>1.01365309681047</v>
       </c>
       <c r="K22">
-        <v>1.023569773102968</v>
+        <v>1.02665617228677</v>
       </c>
       <c r="L22">
-        <v>1.004039809248627</v>
+        <v>1.007959366582398</v>
       </c>
       <c r="M22">
-        <v>1.02788282024083</v>
+        <v>1.030445296715313</v>
       </c>
       <c r="N22">
-        <v>1.011132427239039</v>
+        <v>1.018762237289635</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030639703793736</v>
+        <v>1.032667757413</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027805079830407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030002917129644</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019236281286823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9803830187436935</v>
+        <v>0.983715055111547</v>
       </c>
       <c r="D23">
-        <v>1.009747555353198</v>
+        <v>1.012260393199525</v>
       </c>
       <c r="E23">
-        <v>0.9902009639873496</v>
+        <v>0.9934448482304068</v>
       </c>
       <c r="F23">
-        <v>1.014123599072057</v>
+        <v>1.016210967479926</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039874764265983</v>
+        <v>1.041248696867706</v>
       </c>
       <c r="J23">
-        <v>1.011327447820487</v>
+        <v>1.014509344608314</v>
       </c>
       <c r="K23">
-        <v>1.024819956128215</v>
+        <v>1.027285540915751</v>
       </c>
       <c r="L23">
-        <v>1.005651695743319</v>
+        <v>1.008831440569437</v>
       </c>
       <c r="M23">
-        <v>1.029113907126292</v>
+        <v>1.031162442191023</v>
       </c>
       <c r="N23">
-        <v>1.012763648797271</v>
+        <v>1.018919416002449</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031614039411531</v>
+        <v>1.033235336000471</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028679310387244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030437274642182</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019350224085562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9896993063958476</v>
+        <v>0.9902869874522241</v>
       </c>
       <c r="D24">
-        <v>1.015885540452679</v>
+        <v>1.016285743106373</v>
       </c>
       <c r="E24">
-        <v>0.9977971568261671</v>
+        <v>0.9985219653806707</v>
       </c>
       <c r="F24">
-        <v>1.020181284319905</v>
+        <v>1.020519042164853</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04192323268498</v>
+        <v>1.042303300122854</v>
       </c>
       <c r="J24">
-        <v>1.017599721220522</v>
+        <v>1.018164127478228</v>
       </c>
       <c r="K24">
-        <v>1.029639315312703</v>
+        <v>1.030032774050198</v>
       </c>
       <c r="L24">
-        <v>1.011863067609851</v>
+        <v>1.012575086775815</v>
       </c>
       <c r="M24">
-        <v>1.033863026619038</v>
+        <v>1.034195153945394</v>
       </c>
       <c r="N24">
-        <v>1.019044829544975</v>
+        <v>1.019989932103707</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035372686090549</v>
+        <v>1.035635544439467</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032079315535859</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032371408771042</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019917182663665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000007157261818</v>
+        <v>0.9986481788173961</v>
       </c>
       <c r="D25">
-        <v>1.022702687092664</v>
+        <v>1.021608363922265</v>
       </c>
       <c r="E25">
-        <v>1.006235369443478</v>
+        <v>1.005232995122413</v>
       </c>
       <c r="F25">
-        <v>1.026934349753971</v>
+        <v>1.026041153651668</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044142202515828</v>
+        <v>1.043861444297106</v>
       </c>
       <c r="J25">
-        <v>1.024534280538839</v>
+        <v>1.023221122939306</v>
       </c>
       <c r="K25">
-        <v>1.034958506730214</v>
+        <v>1.033880249249731</v>
       </c>
       <c r="L25">
-        <v>1.018737654384858</v>
+        <v>1.017750615119667</v>
       </c>
       <c r="M25">
-        <v>1.039128453135268</v>
+        <v>1.038248230009269</v>
       </c>
       <c r="N25">
-        <v>1.025989236732928</v>
+        <v>1.022728895406208</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039539935851909</v>
+        <v>1.038843296997312</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03583740153507</v>
+        <v>1.035088585305215</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020838605093504</v>
       </c>
     </row>
   </sheetData>
